--- a/municipal/ENG/Culture/Adjara A.R/Khulo.xlsx
+++ b/municipal/ENG/Culture/Adjara A.R/Khulo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\კულტურა\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Culture\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Number of Museums and Theatres in Khulo</t>
-  </si>
-  <si>
     <t>(Unit)</t>
   </si>
   <si>
@@ -36,6 +33,9 @@
   </si>
   <si>
     <t>number of theatres</t>
+  </si>
+  <si>
+    <t>Number of Museums and Theatres in Khulo municipality</t>
   </si>
 </sst>
 </file>
@@ -177,7 +177,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -463,9 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -475,7 +473,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -492,7 +490,7 @@
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -548,7 +546,7 @@
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>4</v>
@@ -589,7 +587,7 @@
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -632,9 +630,6 @@
       <c r="D6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/municipal/ENG/Culture/Adjara A.R/Khulo.xlsx
+++ b/municipal/ENG/Culture/Adjara A.R/Khulo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Culture\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\Culture\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6CD891-8EAB-46F4-B376-908C1CFAC1E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="12210"/>
+    <workbookView xWindow="18570" yWindow="1065" windowWidth="10170" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khulo" sheetId="1" r:id="rId1"/>
@@ -24,25 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
   <si>
-    <t>(Unit)</t>
+    <t>Theatres</t>
   </si>
   <si>
-    <t>number of museums</t>
+    <t>Total number of theatres, unit</t>
   </si>
   <si>
-    <t>number of theatres</t>
+    <t>Museums</t>
   </si>
   <si>
-    <t>Number of Museums and Theatres in Khulo municipality</t>
+    <t>Total number of museums, unit</t>
+  </si>
+  <si>
+    <t>Annual attendance, persons</t>
+  </si>
+  <si>
+    <t>Annual attendance per 1 000 population</t>
+  </si>
+  <si>
+    <t>Number of excursions, unit</t>
+  </si>
+  <si>
+    <t>Number of exhibitions, unit</t>
+  </si>
+  <si>
+    <t>Museums and Theatres in Khulo municipality</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Number of performances, unit</t>
+  </si>
+  <si>
+    <t>Annual attendance, thsd. Persons</t>
+  </si>
+  <si>
+    <t>Number of seat in the hall (Includes rented), thsd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0.0"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,29 +90,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,6 +106,50 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,50 +198,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
-    <cellStyle name="Normal_Sheet1_1" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1CC531A7-4905-4534-8856-CBA03A6FFC42}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet1_1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Sheet2_1" xfId="3" xr:uid="{8E6FFF59-075F-4734-BDE0-CF79B64C6C1A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,174 +582,621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29" style="5" customWidth="1"/>
+    <col min="2" max="14" width="7.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24">
+        <v>1</v>
+      </c>
+      <c r="L4" s="24">
+        <v>1</v>
+      </c>
+      <c r="M4" s="24">
+        <v>1</v>
+      </c>
+      <c r="N4" s="24">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2021</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2013</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2014</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2015</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2017</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2018</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2019</v>
-      </c>
-      <c r="L3" s="4">
-        <v>2020</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>4</v>
-      </c>
-      <c r="H4" s="8">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8">
-        <v>4</v>
-      </c>
-      <c r="J4" s="8">
-        <v>4</v>
-      </c>
-      <c r="K4" s="8">
-        <v>4</v>
-      </c>
-      <c r="L4" s="8">
-        <v>4</v>
-      </c>
-      <c r="M4" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
+      <c r="B13" s="17">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
+      <c r="G13" s="18">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4</v>
+      </c>
+      <c r="I13" s="18">
+        <v>4</v>
+      </c>
+      <c r="J13" s="18">
+        <v>4</v>
+      </c>
+      <c r="K13" s="18">
+        <v>4</v>
+      </c>
+      <c r="L13" s="18">
+        <v>4</v>
+      </c>
+      <c r="M13" s="18">
+        <v>4</v>
+      </c>
+      <c r="N13" s="18">
+        <v>4</v>
+      </c>
+      <c r="O13" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="19">
+        <v>13518</v>
+      </c>
+      <c r="C14" s="19">
+        <v>12749</v>
+      </c>
+      <c r="D14" s="19">
+        <v>12425</v>
+      </c>
+      <c r="E14" s="19">
+        <v>14127</v>
+      </c>
+      <c r="F14" s="19">
+        <v>10802</v>
+      </c>
+      <c r="G14" s="19">
+        <v>10550</v>
+      </c>
+      <c r="H14" s="19">
+        <v>17072</v>
+      </c>
+      <c r="I14" s="19">
+        <v>14410</v>
+      </c>
+      <c r="J14" s="19">
+        <v>19016</v>
+      </c>
+      <c r="K14" s="19">
+        <v>20227</v>
+      </c>
+      <c r="L14" s="19">
+        <v>1684</v>
+      </c>
+      <c r="M14" s="19">
+        <v>5188</v>
+      </c>
+      <c r="N14" s="19">
+        <v>9500</v>
+      </c>
+      <c r="O14" s="19">
+        <v>12485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="14">
+        <v>548.94316866662609</v>
+      </c>
+      <c r="C15" s="14">
+        <v>525.04993513580303</v>
+      </c>
+      <c r="D15" s="14">
+        <v>518.23736731246481</v>
+      </c>
+      <c r="E15" s="14">
+        <v>596.44086044204255</v>
+      </c>
+      <c r="F15" s="14">
+        <v>454.75403624728983</v>
+      </c>
+      <c r="G15" s="14">
+        <v>435.27591542031968</v>
+      </c>
+      <c r="H15" s="14">
+        <v>690.34958248246005</v>
+      </c>
+      <c r="I15" s="14">
+        <v>571.71196191231888</v>
+      </c>
+      <c r="J15" s="14">
+        <v>740.6138027730176</v>
+      </c>
+      <c r="K15" s="14">
+        <v>775.57515337423297</v>
+      </c>
+      <c r="L15" s="14">
+        <v>63.686559261780495</v>
+      </c>
+      <c r="M15" s="14">
+        <v>194.08903853348295</v>
+      </c>
+      <c r="N15" s="15">
+        <v>348.89272466855186</v>
+      </c>
+      <c r="O15" s="28">
+        <v>446.89837849446963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="20">
+        <v>395</v>
+      </c>
+      <c r="C16" s="20">
+        <v>374</v>
+      </c>
+      <c r="D16" s="20">
+        <v>344</v>
+      </c>
+      <c r="E16" s="20">
+        <v>350</v>
+      </c>
+      <c r="F16" s="20">
+        <v>262</v>
+      </c>
+      <c r="G16" s="20">
+        <v>252</v>
+      </c>
+      <c r="H16" s="20">
+        <v>372</v>
+      </c>
+      <c r="I16" s="20">
+        <v>342</v>
+      </c>
+      <c r="J16" s="20">
+        <v>363</v>
+      </c>
+      <c r="K16" s="20">
+        <v>361</v>
+      </c>
+      <c r="L16" s="20">
+        <v>68</v>
+      </c>
+      <c r="M16" s="20">
+        <v>169</v>
+      </c>
+      <c r="N16" s="20">
+        <v>227</v>
+      </c>
+      <c r="O16" s="29">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="21">
+        <v>14</v>
+      </c>
+      <c r="C17" s="21">
+        <v>14</v>
+      </c>
+      <c r="D17" s="21">
+        <v>8</v>
+      </c>
+      <c r="E17" s="21">
+        <v>20</v>
+      </c>
+      <c r="F17" s="21">
+        <v>17</v>
+      </c>
+      <c r="G17" s="21">
+        <v>17</v>
+      </c>
+      <c r="H17" s="21">
+        <v>24</v>
+      </c>
+      <c r="I17" s="21">
+        <v>27</v>
+      </c>
+      <c r="J17" s="21">
+        <v>22</v>
+      </c>
+      <c r="K17" s="21">
+        <v>22</v>
+      </c>
+      <c r="L17" s="21">
+        <v>7</v>
+      </c>
+      <c r="M17" s="21">
+        <v>8</v>
+      </c>
+      <c r="N17" s="22">
+        <v>24</v>
+      </c>
+      <c r="O17" s="25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
